--- a/metrics/R2/average & upto/Retinopatía de fondo.xlsx
+++ b/metrics/R2/average & upto/Retinopatía de fondo.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6963632489296618</v>
+        <v>0.6046041826712315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6963632489296618</v>
+        <v>0.6046041826712315</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6963632489296618</v>
+        <v>0.6046041826712315</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9770131296639195</v>
+        <v>0.8740205438347322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9769658541582892</v>
+        <v>0.8743587962136365</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9766826246692346</v>
+        <v>0.8773770327623572</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9775491922169706</v>
+        <v>0.8390481379323983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9774353213669775</v>
+        <v>0.8409952168312169</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9774337803383274</v>
+        <v>0.8440749045842666</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9492727601632235</v>
+        <v>0.7356752929365721</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9477300580503296</v>
+        <v>0.7461208307945663</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9528653424474611</v>
+        <v>0.7170386204937956</v>
       </c>
     </row>
   </sheetData>
